--- a/Documentation/UserStories_Tasks 2.xlsx
+++ b/Documentation/UserStories_Tasks 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27630"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roes_a0\Documents\Studium\Sem4\SE\EzExchange\ezexchage\Dokumentation\Allgemein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Visar\PycharmProjects\BetaFocus\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="13_ncr:1_{C1E6B3EF-CE57-4F50-8201-C68085F47FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{585C2DC5-257C-4B68-9F00-4D23F82205F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1871AB59-530C-4727-BBEA-68E9BD4110EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{E76E6A31-16DF-4FE6-BE42-AA197C7A7A07}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E76E6A31-16DF-4FE6-BE42-AA197C7A7A07}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="119">
   <si>
     <t>User Story:</t>
   </si>
@@ -47,45 +47,24 @@
     <t>Titel:</t>
   </si>
   <si>
-    <t>GUI erstellen</t>
-  </si>
-  <si>
     <t>Design für GUI erstellen</t>
   </si>
   <si>
     <t>Komponenten erstellen</t>
   </si>
   <si>
-    <t>Anzeigenübergänge</t>
-  </si>
-  <si>
     <t>Beschreibung:</t>
   </si>
   <si>
     <t>Die GUI soll ein ansprechendes aber zurückhaltendes</t>
   </si>
   <si>
-    <t xml:space="preserve">Es sollen eine Startanzeige, eine Timeranzeige, eine </t>
-  </si>
-  <si>
-    <t>Durch Mausklick soll es möglich sein, zwischen den</t>
-  </si>
-  <si>
     <t>Um das Programm nutzbar zu machen, soll ein GUI erstellt werden.</t>
   </si>
   <si>
     <t>Design haben</t>
   </si>
   <si>
-    <t>Statistiken- und eine Hintergrund-Anzeige erstellt werden</t>
-  </si>
-  <si>
-    <t>Anzeigen zu wechseln, Zb Klick auf Start/Stop</t>
-  </si>
-  <si>
-    <t>Der Nutzer soll in der Lage sein, das Programm über eine graphische Benutzeroberfläche zu steuern und die Ergebnisse angezeigt bekommen.</t>
-  </si>
-  <si>
     <t>Schätzung:</t>
   </si>
   <si>
@@ -110,21 +89,6 @@
     <t>Aufbereitung Messergebnisse</t>
   </si>
   <si>
-    <t>Speicherung</t>
-  </si>
-  <si>
-    <t>aller Sessions mit Auswertung</t>
-  </si>
-  <si>
-    <t>Vergleich</t>
-  </si>
-  <si>
-    <t>Titel</t>
-  </si>
-  <si>
-    <t>Wissenschaftlicher Hintergrund</t>
-  </si>
-  <si>
     <t>Die Messergebnisse einer Session sollen</t>
   </si>
   <si>
@@ -134,15 +98,9 @@
     <t>Die Messergebnisse sollen in ansprechenden und</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Messergebnisse und deren Auswertung </t>
-  </si>
-  <si>
     <t xml:space="preserve">Die Ergebnisse einer Lernsession sollen mit </t>
   </si>
   <si>
-    <t>Die Auswertung und der Vergleich sollen auf</t>
-  </si>
-  <si>
     <t xml:space="preserve">Die Messergebnisse sollen in der GUI nach Beendigung einer Lernsession ausgewertet werden und </t>
   </si>
   <si>
@@ -155,15 +113,9 @@
     <t>klaren Tabellen/Diagrammen dargestellt werden</t>
   </si>
   <si>
-    <t>sollen gespeichert werden.</t>
-  </si>
-  <si>
     <t>vorherigen verglichen werden können</t>
   </si>
   <si>
-    <t>wissenschaftlichen Hintergründen basieren</t>
-  </si>
-  <si>
     <t>gut aufbereitet dargestellt werden.</t>
   </si>
   <si>
@@ -176,9 +128,6 @@
     <t>3 Stunden</t>
   </si>
   <si>
-    <t>Schätzung</t>
-  </si>
-  <si>
     <t>2 Stunden</t>
   </si>
   <si>
@@ -215,57 +164,27 @@
     <t>Löten</t>
   </si>
   <si>
-    <t>Ein geeigneter Arduino und ein MindFlex sollen</t>
-  </si>
-  <si>
     <t>An den Mindflex sollen Kabel so gelötet werden, dass</t>
   </si>
   <si>
-    <t>Die Hardware soll so bearbeitet werden, dass die Messungen des MindFlex mit</t>
-  </si>
-  <si>
-    <t>beschafft werden.</t>
-  </si>
-  <si>
-    <t>eine Verbindung mit dem Arduino möglich ist.</t>
-  </si>
-  <si>
-    <t>Hilfe eines Arduinos ausgewertet werden können.</t>
-  </si>
-  <si>
-    <t>Arduino Sketch</t>
-  </si>
-  <si>
     <t>Sketch implementieren</t>
   </si>
   <si>
     <t>Sketch testen</t>
   </si>
   <si>
-    <t>Konfiguration</t>
-  </si>
-  <si>
-    <t>Der Arduino-Sketch soll implementiert werden</t>
-  </si>
-  <si>
     <t>Der Arduino-Sketch soll, in Verbindung mit dem MindFlex</t>
   </si>
   <si>
     <t xml:space="preserve">Es soll eine Bluetooth/WiFi Schnittstelle </t>
   </si>
   <si>
-    <t>Um die Messungen des Mindflex auszuwerten soll ein ArduinoSketch implementiert und</t>
-  </si>
-  <si>
     <t>ausreichend getestet werden.</t>
   </si>
   <si>
     <t>konfiguriert werden</t>
   </si>
   <si>
-    <t>getestet werden.</t>
-  </si>
-  <si>
     <t>2 Tage</t>
   </si>
   <si>
@@ -275,62 +194,212 @@
     <t>Schnittstellen Besprechung</t>
   </si>
   <si>
-    <t>Datenbank entwerfen</t>
-  </si>
-  <si>
     <t>Daten lesen</t>
   </si>
   <si>
     <t>Das Design-Team und das Hardware-Team</t>
   </si>
   <si>
-    <t>Um die Daten zu speichern, soll eine geeignete</t>
-  </si>
-  <si>
-    <t>Die Daten sollen geeignet gelesen/visualiert/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die GUI und der Arduino-Sketch sollen miteinander verknüpft werden und die </t>
-  </si>
-  <si>
     <t>müssen sich über die Schnittstelle einig werden.</t>
   </si>
   <si>
-    <t>Datenbank entworfen werden</t>
-  </si>
-  <si>
-    <t>weitergegeben werden</t>
-  </si>
-  <si>
     <t>Daten geeignet gespeichert/übergeben werden</t>
   </si>
   <si>
     <t>Hintergrundinformationen</t>
   </si>
   <si>
-    <t>Richtige Nutzung erklären</t>
-  </si>
-  <si>
-    <t>Um die richtige Nutzung zu gewährleisten, sollen Videos/ beschreibungen bereitsgestellt werden, die die richtige Nutzung erklären</t>
-  </si>
-  <si>
     <t xml:space="preserve">Über die Konzentration und die Messung von Gehirnwellen sollen geeigente Informationen </t>
   </si>
   <si>
-    <t>gesucht werden. So soll eine gute, wissenschaftliche Auswertung gewährleistet werden.</t>
-  </si>
-  <si>
-    <t>**bei der Schätzung der Zeit wird davon ausgegangen, dass das Team (6 Leute) 8h am Tag arbeiten.</t>
-  </si>
-  <si>
-    <t>1 hoch, 5 niedrig</t>
+    <t>Der Nutzer soll in der Lage sein, das Programm über eine graphische Benutzeroberfläche</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zu steuern und die Ergebnisse angezeigt bekommen.</t>
+  </si>
+  <si>
+    <t>eine Verbindung mit dem Microkontroller möglich ist.</t>
+  </si>
+  <si>
+    <t>Hardwareseitige Software</t>
+  </si>
+  <si>
+    <t>Um die Messungen des Mindflex auszuwerten muss ein Arduino Sketch implementiert</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> werden, welcher die Signale / Messungen des Mindflex interpretiert.</t>
+  </si>
+  <si>
+    <t>Ein geeigneter Microkontroller, ein MindFlex und</t>
+  </si>
+  <si>
+    <t>ein Display sollen ausgewählt und bestellt werden.</t>
+  </si>
+  <si>
+    <t>6 Stunden</t>
+  </si>
+  <si>
+    <t>Videos</t>
+  </si>
+  <si>
+    <t>Videos drehen, schneiden und anschließend auf</t>
+  </si>
+  <si>
+    <t>YouTube hochladen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EEG-Spielzeug (Mindflex) und Mini-Display vorbereitet werden.</t>
+  </si>
+  <si>
+    <t>Um an die Konzentrationsdaten zu erfassen, muss die Hardware aus Microkontroller,</t>
+  </si>
+  <si>
+    <t>Speicherung der Sessions</t>
+  </si>
+  <si>
+    <t>Dateien gespeichert werden.</t>
+  </si>
+  <si>
+    <t>Kabellose Konfiguration</t>
+  </si>
+  <si>
+    <t>Arduino-Sketches soll implementiert werden für</t>
+  </si>
+  <si>
+    <t>Mikrokontroller</t>
+  </si>
+  <si>
+    <t>4 Stunden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Daten sollen geeignet aus den </t>
+  </si>
+  <si>
+    <t>CSV-Dateien gelesen werden können</t>
+  </si>
+  <si>
+    <t>Die GUI und die Hardware sollen miteinander über Controller reden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gesucht werden. So soll eine gute, wissenschaftliche Auswertung gewährleistet werden. </t>
+  </si>
+  <si>
+    <t>Recherche</t>
+  </si>
+  <si>
+    <t>Recherche über Funktionsweise vom verwendeten</t>
+  </si>
+  <si>
+    <t>Mindflex.</t>
+  </si>
+  <si>
+    <t>Mindflex gestellt werden können, sammeln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI </t>
+  </si>
+  <si>
+    <t>Die Messungen vom Microkontroller sollen in CSV</t>
+  </si>
+  <si>
+    <t>1 hoch, 3 niedrig</t>
+  </si>
+  <si>
+    <t>Controller Implementierung</t>
+  </si>
+  <si>
+    <t>Implementeriung der Interaktionen zwischen</t>
+  </si>
+  <si>
+    <t>Hardware und Software</t>
+  </si>
+  <si>
+    <t>Die entworfenen Designs mit Qt Designer zu</t>
+  </si>
+  <si>
+    <t>Python Klassen / Objekte umwandeln</t>
+  </si>
+  <si>
+    <t>und konfigurieren</t>
+  </si>
+  <si>
+    <t>Übergänge zwischen Fenster erstellen</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Als DIY-Projekt und später öffentliches Projekt sollte Code dokumentiert sein, READMEs geben,</t>
+  </si>
+  <si>
+    <t>Erläuterung der , FAQs über Verwendung und Benutzung und eine kleine Anleitung.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funktionen, Klassen und Code-Blöcke </t>
+  </si>
+  <si>
+    <t>README für's Github Repo kreieren und ausfüllen</t>
+  </si>
+  <si>
+    <t>6 Tage</t>
+  </si>
+  <si>
+    <t>Die Schätzungen bei den User Stories gehen davon aus, dass 8h = 1 Tag</t>
+  </si>
+  <si>
+    <t>FAQ Vorbereitung</t>
+  </si>
+  <si>
+    <t>FAQ GUI Integration</t>
+  </si>
+  <si>
+    <t>Häufige Fragen, die über das Projekt und dem</t>
+  </si>
+  <si>
+    <t>FAQ in GUI unter Hilfe-Fenster hinzufügen</t>
+  </si>
+  <si>
+    <t>Info GUI Integration</t>
+  </si>
+  <si>
+    <t>Hintergrundinfos in GUI unter Hilfe-Fenster hinzufügen</t>
+  </si>
+  <si>
+    <t>Diagramme erstellen</t>
+  </si>
+  <si>
+    <t>Flow- und Klassendiagramm  für Teile des</t>
+  </si>
+  <si>
+    <t>Projekts erstellen zur besseren Verständigung</t>
+  </si>
+  <si>
+    <t>Vergleichbarkeit ermöglichen</t>
+  </si>
+  <si>
+    <t>Timer Implementierung</t>
+  </si>
+  <si>
+    <t>Anhand des Designs ein Timer implementieren</t>
+  </si>
+  <si>
+    <t>README erstellen</t>
+  </si>
+  <si>
+    <t>Code dokumentiren</t>
+  </si>
+  <si>
+    <t>verständlich dokumentieren</t>
+  </si>
+  <si>
+    <t>Anzeigeübergänge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -608,9 +677,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -626,9 +696,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -666,7 +736,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -772,7 +842,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -914,7 +984,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -922,13 +992,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CE9CF8-CBC6-40FE-B709-B9684CF94A81}">
-  <dimension ref="B2:BJ121"/>
+  <dimension ref="B2:AL121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H64" zoomScale="69" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="K78" sqref="K78"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
@@ -943,7 +1013,7 @@
     <col min="52" max="52" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:62">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
@@ -951,13 +1021,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:62" ht="15"/>
-    <row r="4" spans="2:62" ht="15">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -968,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -977,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
@@ -986,15 +1055,15 @@
         <v>2</v>
       </c>
       <c r="W4" s="16" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
       <c r="Z4" s="17"/>
     </row>
-    <row r="5" spans="2:62" ht="15">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1003,98 +1072,100 @@
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
       <c r="J5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="6"/>
       <c r="P5" s="15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
       <c r="T5" s="17"/>
       <c r="V5" s="15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W5" s="16" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="X5" s="16"/>
       <c r="Y5" s="16"/>
       <c r="Z5" s="17"/>
     </row>
-    <row r="6" spans="2:62" ht="15">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H6" s="8"/>
       <c r="J6" s="9"/>
       <c r="K6" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="11"/>
       <c r="P6" s="18"/>
       <c r="Q6" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="T6" s="19"/>
       <c r="V6" s="18"/>
       <c r="W6" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="Z6" s="19"/>
     </row>
-    <row r="7" spans="2:62" ht="15">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="H7" s="8"/>
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="3"/>
       <c r="P7" s="20" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
       <c r="T7" s="22"/>
       <c r="V7" s="20" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="W7" s="21" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="X7" s="21"/>
       <c r="Y7" s="21"/>
       <c r="Z7" s="22"/>
     </row>
-    <row r="8" spans="2:62" ht="15">
-      <c r="B8" s="7"/>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="2:62">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="2:62" ht="15" thickBot="1">
+    <row r="10" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1103,12 +1174,12 @@
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:62" ht="15" thickBot="1">
+    <row r="11" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1116,12 +1187,12 @@
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:62" ht="15" thickBot="1">
+    <row r="12" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1129,13 +1200,13 @@
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="14" spans="2:62" ht="15" thickBot="1"/>
-    <row r="15" spans="2:62" ht="15" thickBot="1">
+    <row r="14" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1146,7 +1217,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1155,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -1164,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
@@ -1173,50 +1244,15 @@
         <v>2</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="3"/>
-      <c r="AH15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" s="2"/>
-      <c r="AL15" s="3"/>
-      <c r="AN15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP15" s="2"/>
-      <c r="AQ15" s="2"/>
-      <c r="AR15" s="3"/>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="2"/>
-      <c r="AV15" s="2"/>
-      <c r="AW15" s="2"/>
-      <c r="AX15" s="3"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="2"/>
-      <c r="BB15" s="2"/>
-      <c r="BC15" s="2"/>
-      <c r="BD15" s="3"/>
-      <c r="BF15" s="1"/>
-      <c r="BG15" s="2"/>
-      <c r="BH15" s="2"/>
-      <c r="BI15" s="2"/>
-      <c r="BJ15" s="3"/>
-    </row>
-    <row r="16" spans="2:62" ht="15">
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1225,226 +1261,131 @@
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
       <c r="J16" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="6"/>
       <c r="P16" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="6"/>
       <c r="V16" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="6"/>
       <c r="AB16" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="6"/>
-      <c r="AH16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="6"/>
-      <c r="AN16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP16" s="5"/>
-      <c r="AQ16" s="5"/>
-      <c r="AR16" s="6"/>
-      <c r="AT16" s="4"/>
-      <c r="AU16" s="5"/>
-      <c r="AV16" s="5"/>
-      <c r="AW16" s="5"/>
-      <c r="AX16" s="6"/>
-      <c r="AZ16" s="4"/>
-      <c r="BA16" s="5"/>
-      <c r="BB16" s="5"/>
-      <c r="BC16" s="5"/>
-      <c r="BD16" s="6"/>
-      <c r="BF16" s="4"/>
-      <c r="BG16" s="5"/>
-      <c r="BH16" s="5"/>
-      <c r="BI16" s="5"/>
-      <c r="BJ16" s="6"/>
-    </row>
-    <row r="17" spans="2:62" ht="15">
+    </row>
+    <row r="17" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H17" s="8"/>
       <c r="J17" s="9"/>
       <c r="K17" s="10" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="11"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="10" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="11"/>
       <c r="V17" s="9"/>
       <c r="W17" s="10" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="11"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="AD17" s="10"/>
       <c r="AE17" s="10"/>
       <c r="AF17" s="11"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="11"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP17" s="10"/>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="11"/>
-      <c r="AT17" s="9"/>
-      <c r="AU17" s="10"/>
-      <c r="AV17" s="10"/>
-      <c r="AW17" s="10"/>
-      <c r="AX17" s="11"/>
-      <c r="AZ17" s="9"/>
-      <c r="BA17" s="10"/>
-      <c r="BB17" s="10"/>
-      <c r="BC17" s="10"/>
-      <c r="BD17" s="11"/>
-      <c r="BF17" s="9"/>
-      <c r="BG17" s="10"/>
-      <c r="BH17" s="10"/>
-      <c r="BI17" s="10"/>
-      <c r="BJ17" s="11"/>
-    </row>
-    <row r="18" spans="2:62" ht="15">
+    </row>
+    <row r="18" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="H18" s="8"/>
       <c r="J18" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="3"/>
       <c r="P18" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="3"/>
       <c r="V18" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="3"/>
       <c r="AB18" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="3"/>
-      <c r="AH18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" s="2"/>
-      <c r="AL18" s="3"/>
-      <c r="AN18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP18" s="2"/>
-      <c r="AQ18" s="2"/>
-      <c r="AR18" s="3"/>
-      <c r="AT18" s="1"/>
-      <c r="AU18" s="2"/>
-      <c r="AV18" s="2"/>
-      <c r="AW18" s="2"/>
-      <c r="AX18" s="3"/>
-      <c r="AZ18" s="1"/>
-      <c r="BA18" s="2"/>
-      <c r="BB18" s="2"/>
-      <c r="BC18" s="2"/>
-      <c r="BD18" s="3"/>
-      <c r="BF18" s="1"/>
-      <c r="BG18" s="2"/>
-      <c r="BH18" s="2"/>
-      <c r="BI18" s="2"/>
-      <c r="BJ18" s="3"/>
-    </row>
-    <row r="19" spans="2:62" ht="15">
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="2:62">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="2:62" ht="15" thickBot="1">
+    <row r="21" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1453,12 +1394,12 @@
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="2:62" ht="15" thickBot="1">
+    <row r="22" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1466,9 +1407,9 @@
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="2:62" ht="15" thickBot="1">
+    <row r="23" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
@@ -1479,13 +1420,13 @@
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="25" spans="2:62" ht="15" thickBot="1"/>
-    <row r="26" spans="2:62" ht="15" thickBot="1">
+    <row r="25" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1496,15 +1437,24 @@
         <v>2</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="2:62">
+      <c r="P26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="3"/>
+    </row>
+    <row r="27" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1513,18 +1463,27 @@
       <c r="G27" s="5"/>
       <c r="H27" s="6"/>
       <c r="J27" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="2:62" ht="15" thickBot="1">
+      <c r="P27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="6"/>
+    </row>
+    <row r="28" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H28" s="8"/>
       <c r="J28" s="9"/>
@@ -1532,31 +1491,45 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="11"/>
-    </row>
-    <row r="29" spans="2:62" ht="15" thickBot="1">
+      <c r="P28" s="9"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="11"/>
+    </row>
+    <row r="29" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H29" s="8"/>
       <c r="J29" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="2:62">
+      <c r="P29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="3"/>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="2:62">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="2:62" ht="15" thickBot="1">
+    <row r="32" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -1565,12 +1538,12 @@
       <c r="G32" s="10"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="2:26" ht="15" thickBot="1">
+    <row r="33" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1578,12 +1551,12 @@
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="2:26" ht="15" thickBot="1">
+    <row r="34" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C34" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1591,13 +1564,13 @@
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="36" spans="2:26" ht="15" thickBot="1"/>
-    <row r="37" spans="2:26" ht="15" thickBot="1">
+    <row r="36" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1608,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -1617,96 +1590,146 @@
         <v>2</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="3"/>
-    </row>
-    <row r="38" spans="2:26">
+      <c r="V37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="5"/>
+        <v>5</v>
+      </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="6"/>
       <c r="J38" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="6"/>
       <c r="P38" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="6"/>
-    </row>
-    <row r="39" spans="2:26" ht="15" thickBot="1">
-      <c r="B39" s="7"/>
-      <c r="C39" t="s">
-        <v>61</v>
-      </c>
+      <c r="V38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="6"/>
+    </row>
+    <row r="39" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
       <c r="H39" s="8"/>
       <c r="J39" s="9"/>
       <c r="K39" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="11"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
       <c r="T39" s="11"/>
-    </row>
-    <row r="40" spans="2:26" ht="15" thickBot="1">
-      <c r="B40" s="7"/>
-      <c r="C40" t="s">
-        <v>64</v>
-      </c>
+      <c r="V39" s="9"/>
+      <c r="W39" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="11"/>
+    </row>
+    <row r="40" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
       <c r="H40" s="8"/>
       <c r="J40" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="3"/>
       <c r="P40" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:26">
+      <c r="V40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="2:26">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="2:26" ht="15" thickBot="1">
+    <row r="43" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -1715,12 +1738,12 @@
       <c r="G43" s="10"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="2:26" ht="15" thickBot="1">
+    <row r="44" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1728,9 +1751,9 @@
       <c r="G44" s="2"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="2:26" ht="15" thickBot="1">
+    <row r="45" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -1741,13 +1764,13 @@
       <c r="G45" s="2"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="47" spans="2:26" ht="15"/>
-    <row r="48" spans="2:26" ht="15">
+    <row r="47" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1758,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -1767,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -1776,15 +1799,15 @@
         <v>2</v>
       </c>
       <c r="W48" s="21" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="X48" s="21"/>
       <c r="Y48" s="21"/>
       <c r="Z48" s="22"/>
     </row>
-    <row r="49" spans="2:26" ht="15">
+    <row r="49" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -1793,96 +1816,98 @@
       <c r="G49" s="5"/>
       <c r="H49" s="6"/>
       <c r="J49" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="6"/>
       <c r="P49" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
       <c r="T49" s="6"/>
       <c r="V49" s="18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W49" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="Z49" s="19"/>
     </row>
-    <row r="50" spans="2:26" ht="15">
+    <row r="50" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H50" s="8"/>
       <c r="J50" s="9"/>
-      <c r="K50" s="10"/>
+      <c r="K50" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="11"/>
       <c r="P50" s="9"/>
       <c r="Q50" s="10" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="R50" s="10"/>
       <c r="S50" s="10"/>
       <c r="T50" s="11"/>
       <c r="V50" s="18"/>
       <c r="W50" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="Z50" s="19"/>
     </row>
-    <row r="51" spans="2:26" ht="15">
+    <row r="51" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H51" s="8"/>
       <c r="J51" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="3"/>
       <c r="P51" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
       <c r="V51" s="20" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="W51" s="21" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="X51" s="21"/>
       <c r="Y51" s="21"/>
       <c r="Z51" s="22"/>
     </row>
-    <row r="52" spans="2:26" ht="15">
+    <row r="52" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="2:26">
+    <row r="53" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="2:26" ht="15" thickBot="1">
+    <row r="54" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="9"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -1891,12 +1916,12 @@
       <c r="G54" s="10"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="2:26" ht="15" thickBot="1">
+    <row r="55" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -1904,9 +1929,9 @@
       <c r="G55" s="2"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="2:26" ht="15" thickBot="1">
+    <row r="56" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -1917,13 +1942,13 @@
       <c r="G56" s="2"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="58" spans="2:26" ht="15" thickBot="1"/>
-    <row r="59" spans="2:26" ht="15" thickBot="1">
+    <row r="58" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -1934,7 +1959,7 @@
         <v>2</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -1943,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
@@ -1952,15 +1977,24 @@
         <v>2</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="3"/>
-    </row>
-    <row r="60" spans="2:26">
+      <c r="AB59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="3"/>
+    </row>
+    <row r="60" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -1969,102 +2003,127 @@
       <c r="G60" s="5"/>
       <c r="H60" s="6"/>
       <c r="J60" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="6"/>
       <c r="P60" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
       <c r="T60" s="6"/>
       <c r="V60" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W60" s="5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="X60" s="5"/>
       <c r="Y60" s="5"/>
       <c r="Z60" s="6"/>
-    </row>
-    <row r="61" spans="2:26" ht="15" thickBot="1">
+      <c r="AB60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC60" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="6"/>
+    </row>
+    <row r="61" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H61" s="8"/>
       <c r="J61" s="9"/>
       <c r="K61" s="10" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
       <c r="N61" s="11"/>
       <c r="P61" s="9"/>
       <c r="Q61" s="10" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
       <c r="T61" s="11"/>
       <c r="V61" s="9"/>
       <c r="W61" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X61" s="10"/>
       <c r="Y61" s="10"/>
       <c r="Z61" s="11"/>
-    </row>
-    <row r="62" spans="2:26" ht="15" thickBot="1">
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD61" s="10"/>
+      <c r="AE61" s="10"/>
+      <c r="AF61" s="11"/>
+    </row>
+    <row r="62" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="H62" s="8"/>
       <c r="J62" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
       <c r="N62" s="3"/>
       <c r="P62" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
       <c r="V62" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
       <c r="Z62" s="3"/>
-    </row>
-    <row r="63" spans="2:26">
+      <c r="AB62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC62" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="3"/>
+    </row>
+    <row r="63" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="2:26">
+    <row r="64" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="H64" s="8"/>
     </row>
-    <row r="65" spans="2:20" ht="15" thickBot="1">
+    <row r="65" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="9"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2073,12 +2132,12 @@
       <c r="G65" s="10"/>
       <c r="H65" s="11"/>
     </row>
-    <row r="66" spans="2:20" ht="15" thickBot="1">
+    <row r="66" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2086,12 +2145,12 @@
       <c r="G66" s="2"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="2:20" ht="15" thickBot="1">
+    <row r="67" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C67" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2099,13 +2158,13 @@
       <c r="G67" s="2"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="69" spans="2:20" ht="15" thickBot="1"/>
-    <row r="70" spans="2:20" ht="15" thickBot="1">
+    <row r="69" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2116,7 +2175,7 @@
         <v>2</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -2124,14 +2183,16 @@
       <c r="P70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q70" s="2"/>
+      <c r="Q70" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
       <c r="T70" s="3"/>
     </row>
-    <row r="71" spans="2:20">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -2140,29 +2201,33 @@
       <c r="G71" s="5"/>
       <c r="H71" s="6"/>
       <c r="J71" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
       <c r="N71" s="6"/>
       <c r="P71" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q71" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>108</v>
+      </c>
       <c r="R71" s="5"/>
       <c r="S71" s="5"/>
       <c r="T71" s="6"/>
     </row>
-    <row r="72" spans="2:20" ht="15" thickBot="1">
+    <row r="72" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="H72" s="8"/>
       <c r="J72" s="9"/>
-      <c r="K72" s="10"/>
+      <c r="K72" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
       <c r="N72" s="11"/>
@@ -2172,35 +2237,39 @@
       <c r="S72" s="10"/>
       <c r="T72" s="11"/>
     </row>
-    <row r="73" spans="2:20" ht="15" thickBot="1">
+    <row r="73" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H73" s="8"/>
       <c r="J73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K73" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="3"/>
       <c r="P73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q73" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q73" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
       <c r="T73" s="3"/>
     </row>
-    <row r="74" spans="2:20">
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B74" s="7"/>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="2:20">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B75" s="7"/>
       <c r="H75" s="8"/>
     </row>
-    <row r="76" spans="2:20" ht="15" thickBot="1">
+    <row r="76" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -2209,12 +2278,12 @@
       <c r="G76" s="10"/>
       <c r="H76" s="11"/>
     </row>
-    <row r="77" spans="2:20" ht="15" thickBot="1">
+    <row r="77" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -2222,9 +2291,9 @@
       <c r="G77" s="2"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="2:20" ht="15" thickBot="1">
+    <row r="78" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C78" s="2">
         <v>3</v>
@@ -2235,20 +2304,266 @@
       <c r="G78" s="2"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="82" spans="2:3">
-      <c r="B82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3">
-      <c r="B83" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9">
+    <row r="80" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="6"/>
+      <c r="J82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="3"/>
+      <c r="P82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="3"/>
+      <c r="V82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W82" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="3"/>
+      <c r="AB82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD82" s="2"/>
+      <c r="AE82" s="2"/>
+      <c r="AF82" s="3"/>
+      <c r="AH82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI82" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ82" s="2"/>
+      <c r="AK82" s="2"/>
+      <c r="AL82" s="3"/>
+    </row>
+    <row r="83" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H83" s="8"/>
+      <c r="J83" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" t="s">
+        <v>105</v>
+      </c>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="6"/>
+      <c r="P83" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>99</v>
+      </c>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="6"/>
+      <c r="V83" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" t="s">
+        <v>106</v>
+      </c>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="6"/>
+      <c r="AB83" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="6"/>
+      <c r="AH83" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ83" s="5"/>
+      <c r="AK83" s="5"/>
+      <c r="AL83" s="6"/>
+    </row>
+    <row r="84" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H84" s="8"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="11"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="11"/>
+      <c r="V84" s="9"/>
+      <c r="W84" s="10"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="10"/>
+      <c r="Z84" s="11"/>
+      <c r="AB84" s="9"/>
+      <c r="AC84" s="10"/>
+      <c r="AD84" s="10"/>
+      <c r="AE84" s="10"/>
+      <c r="AF84" s="11"/>
+      <c r="AH84" s="9"/>
+      <c r="AI84" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ84" s="10"/>
+      <c r="AK84" s="10"/>
+      <c r="AL84" s="11"/>
+    </row>
+    <row r="85" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="7"/>
+      <c r="H85" s="8"/>
+      <c r="J85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="3"/>
+      <c r="P85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q85" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="3"/>
+      <c r="V85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W85" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="3"/>
+      <c r="AB85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC85" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD85" s="2"/>
+      <c r="AE85" s="2"/>
+      <c r="AF85" s="3"/>
+      <c r="AH85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI85" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ85" s="2"/>
+      <c r="AK85" s="2"/>
+      <c r="AL85" s="3"/>
+    </row>
+    <row r="86" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B86" s="7"/>
+      <c r="H86" s="8"/>
+    </row>
+    <row r="87" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="9"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="11"/>
+    </row>
+    <row r="88" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="2">
+        <v>4</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="93" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
